--- a/src/pause-web/src/main/resources/VerityRelatorio.xlsx
+++ b/src/pause-web/src/main/resources/VerityRelatorio.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.almeida\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15690" windowHeight="2760"/>
   </bookViews>
   <sheets>
-    <sheet name="VerityTI" sheetId="1" r:id="rId1"/>
+    <sheet name="QA360" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Extrato Horas - Banco de Horas</t>
   </si>
@@ -90,6 +94,9 @@
   </si>
   <si>
     <t>Período:</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -100,13 +107,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,6 +123,14 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,24 +162,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -200,10 +257,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D867A82-88D0-48C3-819E-7FF123BBA116}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AA8E3E-C50E-40C7-A431-56549E7B3689}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -537,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,143 +619,495 @@
     <col min="17" max="17" width="3" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="3" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" style="8" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="8"/>
+    <col min="24" max="24" width="7.140625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" style="8" customWidth="1"/>
     <col min="27" max="27" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="R2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="S2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="R3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D4:R4"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="R3:V3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LLegenda : Origem Marcação: M- Manual / E- Eletrônico / SA = Sobre Aviso (Plantão); SA = Sobre Aviso sem Acionamento / ST = Sobre Aviso Trabalhado / TP = Tipo do Ponto</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/pause-web/src/main/resources/VerityRelatorio.xlsx
+++ b/src/pause-web/src/main/resources/VerityRelatorio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.almeida\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.almeida\Desktop\projetos\PAUSE\regpontov2\src\pause-web\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="QA360" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'QA360'!$1:$5</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -250,10 +253,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>445827</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -283,7 +286,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1066800" cy="445827"/>
+          <a:ext cx="1381124" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,10 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,8 +1109,8 @@
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="R3:V3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.33333333333333331" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LLegenda : Origem Marcação: M- Manual / E- Eletrônico / SA = Sobre Aviso (Plantão); SA = Sobre Aviso sem Acionamento / ST = Sobre Aviso Trabalhado / TP = Tipo do Ponto</oddFooter>
   </headerFooter>

--- a/src/pause-web/src/main/resources/VerityRelatorio.xlsx
+++ b/src/pause-web/src/main/resources/VerityRelatorio.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.almeida\Desktop\projetos\PAUSE\regpontov2\src\pause-web\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.olejnik\Desktop\PASTA 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15690" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="QA360" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'QA360'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'QA360'!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Extrato Horas - Banco de Horas</t>
   </si>
@@ -30,21 +30,12 @@
     <t>Ponto eletrônico</t>
   </si>
   <si>
-    <t>Data Reg</t>
-  </si>
-  <si>
     <t>Dia</t>
   </si>
   <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>TP</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>Negativas</t>
   </si>
   <si>
-    <t>Ad Not</t>
-  </si>
-  <si>
     <t>Horas SA</t>
   </si>
   <si>
@@ -100,13 +88,34 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Data impressão:</t>
+  </si>
+  <si>
+    <t>Horas ST</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Fim</t>
+  </si>
+  <si>
+    <t>Sobreaviso</t>
+  </si>
+  <si>
+    <t>Data Reg.</t>
+  </si>
+  <si>
+    <t>Ad. Not.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -138,6 +147,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -153,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,42 +178,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -286,7 +348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1381124" cy="495300"/>
+          <a:ext cx="1295399" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,521 +660,931 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:N1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="3" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="3" customWidth="1"/>
-    <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="3" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" style="8" customWidth="1"/>
-    <col min="22" max="23" width="9.140625" style="8"/>
-    <col min="24" max="24" width="7.140625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" style="8" customWidth="1"/>
-    <col min="27" max="27" width="2.140625" customWidth="1"/>
+    <col min="3" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="12" width="8.140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="19" width="8" style="4" customWidth="1"/>
+    <col min="21" max="21" width="2.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="P3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="R2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="Q3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="R3" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
+    <row r="4" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="I6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="J6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="K6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="N6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="4" t="s">
+      <c r="O6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="4" t="s">
+      <c r="P6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="Q6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="S6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D4:R4"/>
-    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:V3"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.33333333333333331" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LLegenda : Origem Marcação: M- Manual / E- Eletrônico / SA = Sobre Aviso (Plantão); SA = Sobre Aviso sem Acionamento / ST = Sobre Aviso Trabalhado / TP = Tipo do Ponto</oddFooter>
+    <oddFooter>&amp;LLegenda : Origem Marcação: M- Manual / E- Eletrônico / SA = Sobreaviso (Plantão); SA = Sobreaviso sem Acionamento / ST = Sobre Aviso Trabalhado</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
